--- a/latency_data.xlsx
+++ b/latency_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,46 @@
         <v>1.075778722763062</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/training_model_ctgan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05246949195861816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/train_model_tvae_adults_dataset</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.172144412994385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/training_model_ctgan</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06394577026367188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/inference_ctgan_metrics</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>30.27672910690308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
